--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -424,10 +424,10 @@
         <v>09226398532</v>
       </c>
       <c r="C2" t="str">
-        <v>l</v>
+        <v>fdsa</v>
       </c>
       <c r="D2" t="str">
-        <v>;</v>
+        <v>fea</v>
       </c>
     </row>
   </sheetData>

--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -430,9 +430,107 @@
         <v>fea</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>sepehr rahimi</v>
+      </c>
+      <c r="B3" t="str">
+        <v>09362172533</v>
+      </c>
+      <c r="C3" t="str">
+        <v>noyan</v>
+      </c>
+      <c r="D3" t="str">
+        <v>f</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Sepehr taghi</v>
+      </c>
+      <c r="B4" t="str">
+        <v>09210730155</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Service 360</v>
+      </c>
+      <c r="D4" t="str">
+        <v xml:space="preserve">Team master </v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Pedram daryany</v>
+      </c>
+      <c r="B5" t="str">
+        <v>09334886240</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Noyan</v>
+      </c>
+      <c r="D5" t="str">
+        <v>فروش</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v xml:space="preserve">نوید پاینده </v>
+      </c>
+      <c r="B6" t="str">
+        <v>۰۹۱۲۰۹۰۶۴۵۸</v>
+      </c>
+      <c r="C6" t="str">
+        <v>سرویس ۳۶۰</v>
+      </c>
+      <c r="D6" t="str">
+        <v>مدیرعامل</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>اقای پرویزی</v>
+      </c>
+      <c r="B7" t="str">
+        <v>09123071300</v>
+      </c>
+      <c r="C7" t="str">
+        <v xml:space="preserve">مدیر </v>
+      </c>
+      <c r="D7" t="str">
+        <v xml:space="preserve">مدنور </v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>دریایی</v>
+      </c>
+      <c r="B8" t="str">
+        <v>09126807144</v>
+      </c>
+      <c r="C8" t="str">
+        <v xml:space="preserve">مدیر تهران ای لوکس </v>
+      </c>
+      <c r="D8" t="str">
+        <v xml:space="preserve">مسئول تهران </v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v xml:space="preserve">خانم خطیر </v>
+      </c>
+      <c r="B9" t="str">
+        <v>09108377749</v>
+      </c>
+      <c r="C9" t="str">
+        <v xml:space="preserve">مونوگرام قوطی </v>
+      </c>
+      <c r="D9" t="str">
+        <v xml:space="preserve">کارشناس فروش </v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D9"/>
   </ignoredErrors>
 </worksheet>
 </file>